--- a/Code/Results/Cases/Case_1_109/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_109/res_line/pl_mw.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.5793654039437683</v>
+        <v>0.2159311196958242</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.005298165396380838</v>
+        <v>0.00328276805978156</v>
       </c>
       <c r="E2">
-        <v>1.524931150896066</v>
+        <v>0.4354855266417559</v>
       </c>
       <c r="F2">
-        <v>0.9968661724061718</v>
+        <v>0.4268455756567278</v>
       </c>
       <c r="G2">
-        <v>0.9869680518151398</v>
+        <v>0.3367752227119354</v>
       </c>
       <c r="H2">
-        <v>0.479011109685743</v>
+        <v>0.3434920082859492</v>
       </c>
       <c r="I2">
-        <v>0.4951129138725179</v>
+        <v>0.3757315010515043</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -457,10 +457,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>3.037635430282819</v>
+        <v>1.538965158849294</v>
       </c>
       <c r="O2">
-        <v>3.050645075630598</v>
+        <v>1.288635611322178</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.5052132088301562</v>
+        <v>0.1913949238933697</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.004652449415900151</v>
+        <v>0.003117985810526136</v>
       </c>
       <c r="E3">
-        <v>1.306053004890444</v>
+        <v>0.3796236440278449</v>
       </c>
       <c r="F3">
-        <v>0.8628529833462437</v>
+        <v>0.3933003553665202</v>
       </c>
       <c r="G3">
-        <v>0.8508712951368125</v>
+        <v>0.3012008603001277</v>
       </c>
       <c r="H3">
-        <v>0.4201828794666795</v>
+        <v>0.3306581927846537</v>
       </c>
       <c r="I3">
-        <v>0.4584487682843417</v>
+        <v>0.3656238581545637</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -504,10 +504,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>2.737299696658567</v>
+        <v>1.440536212657179</v>
       </c>
       <c r="O3">
-        <v>2.638560695354784</v>
+        <v>1.186000399322808</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.4595565776571675</v>
+        <v>0.1762869034279646</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.004260646586425665</v>
+        <v>0.003018255499195988</v>
       </c>
       <c r="E4">
-        <v>1.174656493552405</v>
+        <v>0.3454298728940586</v>
       </c>
       <c r="F4">
-        <v>0.7818870751447378</v>
+        <v>0.3729420886923549</v>
       </c>
       <c r="G4">
-        <v>0.7685931899414129</v>
+        <v>0.2794993337179079</v>
       </c>
       <c r="H4">
-        <v>0.3847939684975046</v>
+        <v>0.3229880749787242</v>
       </c>
       <c r="I4">
-        <v>0.4362154386401045</v>
+        <v>0.3596127975951688</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -551,10 +551,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>2.5530864410552</v>
+        <v>1.380350891855613</v>
       </c>
       <c r="O4">
-        <v>2.389784592458739</v>
+        <v>1.123707417123967</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.4409186727191212</v>
+        <v>0.1701201473106835</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.004101975997039986</v>
+        <v>0.002977983059874845</v>
       </c>
       <c r="E5">
-        <v>1.121746707635722</v>
+        <v>0.3315199486717546</v>
       </c>
       <c r="F5">
-        <v>0.7491814915978097</v>
+        <v>0.3647054950681934</v>
       </c>
       <c r="G5">
-        <v>0.7353419341014273</v>
+        <v>0.2706907303260948</v>
       </c>
       <c r="H5">
-        <v>0.3705360649489222</v>
+        <v>0.3199150623406126</v>
       </c>
       <c r="I5">
-        <v>0.4272251559504312</v>
+        <v>0.3572128864359954</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -598,10 +598,10 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>2.478069448651979</v>
+        <v>1.355891405433653</v>
       </c>
       <c r="O5">
-        <v>2.289333870716746</v>
+        <v>1.098503372127993</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.4378218885599239</v>
+        <v>0.1690955695415823</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.004075683971622723</v>
+        <v>0.002971318247256605</v>
       </c>
       <c r="E6">
-        <v>1.112996220327403</v>
+        <v>0.3292116194363217</v>
       </c>
       <c r="F6">
-        <v>0.7437669979451584</v>
+        <v>0.3633413997772692</v>
       </c>
       <c r="G6">
-        <v>0.7298360984162144</v>
+        <v>0.269230162170615</v>
       </c>
       <c r="H6">
-        <v>0.3681778445340456</v>
+        <v>0.3194079646665671</v>
       </c>
       <c r="I6">
-        <v>0.4257365520943779</v>
+        <v>0.3568173988915788</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -645,10 +645,10 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>2.465616123913208</v>
+        <v>1.351834048475041</v>
       </c>
       <c r="O6">
-        <v>2.272706244722855</v>
+        <v>1.094329137056548</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.4593053524216657</v>
+        <v>0.1762037765295901</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.004258502903002892</v>
+        <v>0.003017710873152168</v>
       </c>
       <c r="E7">
-        <v>1.173940508682506</v>
+        <v>0.3452421832880503</v>
       </c>
       <c r="F7">
-        <v>0.78144488166744</v>
+        <v>0.3728307665163442</v>
       </c>
       <c r="G7">
-        <v>0.7681436849631496</v>
+        <v>0.2793803970864275</v>
       </c>
       <c r="H7">
-        <v>0.384601046090765</v>
+        <v>0.3229464183999653</v>
       </c>
       <c r="I7">
-        <v>0.4360939092483918</v>
+        <v>0.3595802297560198</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -692,10 +692,10 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>2.552074523768425</v>
+        <v>1.38002074861987</v>
       </c>
       <c r="O7">
-        <v>2.388426300190986</v>
+        <v>1.12336677637748</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.5538236746775169</v>
+        <v>0.2074802658001431</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.005074435093757046</v>
+        <v>0.00322565360309035</v>
       </c>
       <c r="E8">
-        <v>1.44876550594509</v>
+        <v>0.4162010468717057</v>
       </c>
       <c r="F8">
-        <v>0.9503577801120713</v>
+        <v>0.4152293778963099</v>
       </c>
       <c r="G8">
-        <v>0.9397463654442504</v>
+        <v>0.3244794999739042</v>
       </c>
       <c r="H8">
-        <v>0.4585622545726551</v>
+        <v>0.3390232442816625</v>
       </c>
       <c r="I8">
-        <v>0.4824132112798765</v>
+        <v>0.3722062484302811</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -739,10 +739,10 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>2.934040714684301</v>
+        <v>1.504976964632107</v>
       </c>
       <c r="O8">
-        <v>2.907589319884778</v>
+        <v>1.253095441307636</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.7382065226402119</v>
+        <v>0.2684501888315936</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.006721431169502523</v>
+        <v>0.003644731220816766</v>
       </c>
       <c r="E9">
-        <v>2.017483874186283</v>
+        <v>0.5562976445450403</v>
       </c>
       <c r="F9">
-        <v>1.294198833933351</v>
+        <v>0.5002909339772401</v>
       </c>
       <c r="G9">
-        <v>1.288739143502312</v>
+        <v>0.4140703990656505</v>
       </c>
       <c r="H9">
-        <v>0.6104393485628066</v>
+        <v>0.3722245405283218</v>
       </c>
       <c r="I9">
-        <v>0.5754683679896999</v>
+        <v>0.3984893586955494</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -786,10 +786,10 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>3.684562022066558</v>
+        <v>1.751860150726543</v>
       </c>
       <c r="O9">
-        <v>3.966343654729542</v>
+        <v>1.513334097579957</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.8731587267203054</v>
+        <v>0.3129948669844396</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.007977092752810222</v>
+        <v>0.003959326331720803</v>
       </c>
       <c r="E10">
-        <v>2.463144888214842</v>
+        <v>0.6599630079396519</v>
       </c>
       <c r="F10">
-        <v>1.557834171831701</v>
+        <v>0.5639956345128354</v>
       </c>
       <c r="G10">
-        <v>1.556308785808511</v>
+        <v>0.4806440831150098</v>
       </c>
       <c r="H10">
-        <v>0.7278046150333353</v>
+        <v>0.3976543754028228</v>
       </c>
       <c r="I10">
-        <v>0.6452217692004893</v>
+        <v>0.4186982167615625</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -833,10 +833,10 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>4.236894622658752</v>
+        <v>1.93419659562025</v>
       </c>
       <c r="O10">
-        <v>4.779924602685014</v>
+        <v>1.70823048577472</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.9344599874919197</v>
+        <v>0.33319936175468</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.008563135149408652</v>
+        <v>0.004103863068408486</v>
       </c>
       <c r="E11">
-        <v>2.674521596467969</v>
+        <v>0.7073182102084701</v>
       </c>
       <c r="F11">
-        <v>1.681013446550395</v>
+        <v>0.5932485116357213</v>
       </c>
       <c r="G11">
-        <v>1.681371632577566</v>
+        <v>0.5111043360739984</v>
       </c>
       <c r="H11">
-        <v>0.782866621990479</v>
+        <v>0.4094518639923876</v>
       </c>
       <c r="I11">
-        <v>0.6772639329326324</v>
+        <v>0.4280806917633839</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>4.488382904391415</v>
+        <v>2.017317443662478</v>
       </c>
       <c r="O11">
-        <v>5.160604547285118</v>
+        <v>1.797728296575315</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.9576618370860217</v>
+        <v>0.3408412057247006</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.008787704167087185</v>
+        <v>0.004158796915575635</v>
       </c>
       <c r="E12">
-        <v>2.756066497554144</v>
+        <v>0.7252814645633805</v>
       </c>
       <c r="F12">
-        <v>1.728207105981014</v>
+        <v>0.604365721277091</v>
       </c>
       <c r="G12">
-        <v>1.729298286119558</v>
+        <v>0.5226648403903766</v>
       </c>
       <c r="H12">
-        <v>0.803997330441689</v>
+        <v>0.4139524800987431</v>
       </c>
       <c r="I12">
-        <v>0.6894428311920322</v>
+        <v>0.4316602591565939</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -927,10 +927,10 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>4.583648715502079</v>
+        <v>2.048815004509549</v>
       </c>
       <c r="O12">
-        <v>5.30654847338036</v>
+        <v>1.831741466706262</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.9526653991390504</v>
+        <v>0.3391958157679937</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.008739212105059124</v>
+        <v>0.004146957056267553</v>
       </c>
       <c r="E13">
-        <v>2.738433005009682</v>
+        <v>0.7214113434755376</v>
       </c>
       <c r="F13">
-        <v>1.718017316158253</v>
+        <v>0.6019696543234119</v>
       </c>
       <c r="G13">
-        <v>1.718949644460423</v>
+        <v>0.5201739184791165</v>
       </c>
       <c r="H13">
-        <v>0.7994333189917029</v>
+        <v>0.4129817139520924</v>
       </c>
       <c r="I13">
-        <v>0.6868178671706033</v>
+        <v>0.4308881605543888</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -974,10 +974,10 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>4.563130066384986</v>
+        <v>2.042030543333738</v>
       </c>
       <c r="O13">
-        <v>5.275032637844561</v>
+        <v>1.824410655378244</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.9363690428265841</v>
+        <v>0.3338282482071406</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.008581554186072538</v>
+        <v>0.004108378505360832</v>
       </c>
       <c r="E14">
-        <v>2.681198627115037</v>
+        <v>0.7087954249356869</v>
       </c>
       <c r="F14">
-        <v>1.684884606224955</v>
+        <v>0.5941623311389179</v>
       </c>
       <c r="G14">
-        <v>1.685302661151781</v>
+        <v>0.5120549037030742</v>
       </c>
       <c r="H14">
-        <v>0.7845992030046318</v>
+        <v>0.409821466670877</v>
       </c>
       <c r="I14">
-        <v>0.6782649886334866</v>
+        <v>0.4283746547068787</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1021,10 +1021,10 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>4.496219825738564</v>
+        <v>2.019908357050213</v>
       </c>
       <c r="O14">
-        <v>5.172573933209151</v>
+        <v>1.800524119720649</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.9263855807037658</v>
+        <v>0.3305392456628908</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.008485346035396191</v>
+        <v>0.00408477407517438</v>
       </c>
       <c r="E15">
-        <v>2.646344802390672</v>
+        <v>0.7010719049055893</v>
       </c>
       <c r="F15">
-        <v>1.664663857490424</v>
+        <v>0.5893853151532795</v>
       </c>
       <c r="G15">
-        <v>1.664769677683609</v>
+        <v>0.5070851600557091</v>
       </c>
       <c r="H15">
-        <v>0.7755505943766252</v>
+        <v>0.4078900483665961</v>
       </c>
       <c r="I15">
-        <v>0.6730320097669278</v>
+        <v>0.4268385096919047</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>4.455239622433339</v>
+        <v>2.006360570313291</v>
       </c>
       <c r="O15">
-        <v>5.110056509087201</v>
+        <v>1.785908904299276</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.8691508517122486</v>
+        <v>0.3116732098856971</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.007939133608239501</v>
+        <v>0.003949908852845851</v>
       </c>
       <c r="E16">
-        <v>2.449525978174464</v>
+        <v>0.6568724169760856</v>
       </c>
       <c r="F16">
-        <v>1.549856206469315</v>
+        <v>0.5620894304974513</v>
       </c>
       <c r="G16">
-        <v>1.5482101214414</v>
+        <v>0.4786570196494324</v>
       </c>
       <c r="H16">
-        <v>0.7242430871727095</v>
+        <v>0.3968880122874339</v>
       </c>
       <c r="I16">
-        <v>0.6431340378036907</v>
+        <v>0.4180888088535895</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1115,10 +1115,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>4.220463849171125</v>
+        <v>1.928767661017872</v>
       </c>
       <c r="O16">
-        <v>4.755281211551505</v>
+        <v>1.702398612130764</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.8340171836811408</v>
+        <v>0.3000838993125114</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.007608183454845374</v>
+        <v>0.003867535620365459</v>
       </c>
       <c r="E17">
-        <v>2.331168706861192</v>
+        <v>0.629809763319642</v>
       </c>
       <c r="F17">
-        <v>1.480312321517161</v>
+        <v>0.5454146261146775</v>
       </c>
       <c r="G17">
-        <v>1.477619640781597</v>
+        <v>0.4612626808594769</v>
       </c>
       <c r="H17">
-        <v>0.6932223413563747</v>
+        <v>0.3901974874650023</v>
       </c>
       <c r="I17">
-        <v>0.6248725872898646</v>
+        <v>0.4127692216154415</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1162,10 +1162,10 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>4.076494888478607</v>
+        <v>1.88120914429345</v>
       </c>
       <c r="O17">
-        <v>4.540526966263201</v>
+        <v>1.651383722660285</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.8138007528253866</v>
+        <v>0.2934125106850161</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.007419189712354779</v>
+        <v>0.003820291157840217</v>
       </c>
       <c r="E18">
-        <v>2.263888576377553</v>
+        <v>0.6142624613427046</v>
       </c>
       <c r="F18">
-        <v>1.440613032443892</v>
+        <v>0.5358494138644119</v>
       </c>
       <c r="G18">
-        <v>1.437326779334853</v>
+        <v>0.4512744032264209</v>
       </c>
       <c r="H18">
-        <v>0.6755347551190596</v>
+        <v>0.3863708487733675</v>
       </c>
       <c r="I18">
-        <v>0.6143983206426071</v>
+        <v>0.4097273953840173</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1209,10 +1209,10 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>3.993709333444542</v>
+        <v>1.85387144156806</v>
       </c>
       <c r="O18">
-        <v>4.417983711144132</v>
+        <v>1.622120123892898</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.8069543263246715</v>
+        <v>0.2911527646049308</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.007355419270940189</v>
+        <v>0.003804318212985436</v>
       </c>
       <c r="E19">
-        <v>2.241238163662473</v>
+        <v>0.6090015003013463</v>
       </c>
       <c r="F19">
-        <v>1.427220847244641</v>
+        <v>0.5326151957723084</v>
       </c>
       <c r="G19">
-        <v>1.423734890859862</v>
+        <v>0.4478953566152768</v>
       </c>
       <c r="H19">
-        <v>0.66957149556535</v>
+        <v>0.3850789144428575</v>
       </c>
       <c r="I19">
-        <v>0.610856921260563</v>
+        <v>0.4087005711172083</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1256,10 +1256,10 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>3.965683291769551</v>
+        <v>1.844618345498787</v>
       </c>
       <c r="O19">
-        <v>4.376652997491306</v>
+        <v>1.612225456820568</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.8377580912795963</v>
+        <v>0.3013181776851468</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.00764326951381733</v>
+        <v>0.003876290507584201</v>
       </c>
       <c r="E20">
-        <v>2.343683935536845</v>
+        <v>0.6326887045236589</v>
       </c>
       <c r="F20">
-        <v>1.487683730996764</v>
+        <v>0.5471870247896504</v>
       </c>
       <c r="G20">
-        <v>1.485101550843126</v>
+        <v>0.4631126271809762</v>
       </c>
       <c r="H20">
-        <v>0.6965082693320426</v>
+        <v>0.3909074710753089</v>
       </c>
       <c r="I20">
-        <v>0.6268135205769241</v>
+        <v>0.4133336567293782</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>4.091818400229073</v>
+        <v>1.886270128093656</v>
       </c>
       <c r="O20">
-        <v>4.563284905654655</v>
+        <v>1.656806175146926</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.9411559823937807</v>
+        <v>0.3354050867553156</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.008627785649217401</v>
+        <v>0.004119704540567426</v>
       </c>
       <c r="E21">
-        <v>2.697966739097112</v>
+        <v>0.7125001682736638</v>
       </c>
       <c r="F21">
-        <v>1.694600906553859</v>
+        <v>0.5964544477321994</v>
       </c>
       <c r="G21">
-        <v>1.695169425529855</v>
+        <v>0.5144389481118878</v>
       </c>
       <c r="H21">
-        <v>0.7889484044630137</v>
+        <v>0.4107488063632729</v>
       </c>
       <c r="I21">
-        <v>0.6807759445216774</v>
+        <v>0.429112214418673</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>4.515872099351498</v>
+        <v>2.026405625114307</v>
       </c>
       <c r="O21">
-        <v>5.202617682842231</v>
+        <v>1.807536841490844</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.008665481205384</v>
+        <v>0.3576291578720543</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.009286977287185749</v>
+        <v>0.00427995902020939</v>
       </c>
       <c r="E22">
-        <v>2.93841341156454</v>
+        <v>0.7648426698322197</v>
       </c>
       <c r="F22">
-        <v>1.83307496087194</v>
+        <v>0.6288856518111032</v>
       </c>
       <c r="G22">
-        <v>1.83582135473074</v>
+        <v>0.5481347357242612</v>
       </c>
       <c r="H22">
-        <v>0.8510172862341676</v>
+        <v>0.4239096552953754</v>
       </c>
       <c r="I22">
-        <v>0.7163074138430972</v>
+        <v>0.4395793436413413</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1397,10 +1397,10 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>4.793206235152695</v>
+        <v>2.118115898853375</v>
       </c>
       <c r="O22">
-        <v>5.631035743392658</v>
+        <v>1.906761666784462</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.9726400862101912</v>
+        <v>0.3457728835225566</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.00893351337317938</v>
+        <v>0.00419432250900087</v>
       </c>
       <c r="E23">
-        <v>2.809170915509966</v>
+        <v>0.7368890890760866</v>
       </c>
       <c r="F23">
-        <v>1.75884252607699</v>
+        <v>0.6115551107154431</v>
       </c>
       <c r="G23">
-        <v>1.760413326892944</v>
+        <v>0.5301366292087835</v>
       </c>
       <c r="H23">
-        <v>0.8177241488519655</v>
+        <v>0.4168677050772089</v>
       </c>
       <c r="I23">
-        <v>0.6973192642933554</v>
+        <v>0.4339788619107594</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1444,10 +1444,10 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>4.645170341327685</v>
+        <v>2.069158297356239</v>
       </c>
       <c r="O23">
-        <v>5.401315056717635</v>
+        <v>1.853737639956933</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.8360668819180432</v>
+        <v>0.3007601869816199</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.007627403176048375</v>
+        <v>0.003872332071402695</v>
       </c>
       <c r="E24">
-        <v>2.338023436638267</v>
+        <v>0.6313870999754982</v>
       </c>
       <c r="F24">
-        <v>1.484350243086752</v>
+        <v>0.5463856568671446</v>
       </c>
       <c r="G24">
-        <v>1.481718080754149</v>
+        <v>0.4622762292460152</v>
       </c>
       <c r="H24">
-        <v>0.6950222474172563</v>
+        <v>0.3905864257188227</v>
       </c>
       <c r="I24">
-        <v>0.6259359484111684</v>
+        <v>0.4130784242511822</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1491,10 +1491,10 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>4.084890690002226</v>
+        <v>1.883982043575145</v>
       </c>
       <c r="O24">
-        <v>4.552993189745052</v>
+        <v>1.654354480355494</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.6884222602582781</v>
+        <v>0.2519980490937996</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.006269286364984694</v>
+        <v>0.003530170004244937</v>
       </c>
       <c r="E25">
-        <v>1.859524139094248</v>
+        <v>0.5182800985496812</v>
       </c>
       <c r="F25">
-        <v>1.199509197689281</v>
+        <v>0.4770700030462791</v>
       </c>
       <c r="G25">
-        <v>1.192647888632962</v>
+        <v>0.3897053291205168</v>
       </c>
       <c r="H25">
-        <v>0.5684647483349181</v>
+        <v>0.3630617902832967</v>
       </c>
       <c r="I25">
-        <v>0.5500536194376622</v>
+        <v>0.3912191043998661</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1538,10 +1538,10 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>3.481366830696999</v>
+        <v>1.684892220676318</v>
       </c>
       <c r="O25">
-        <v>3.674513817175978</v>
+        <v>1.442293097308493</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_109/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_109/res_line/pl_mw.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2159311196958242</v>
+        <v>0.5793654039439957</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.00328276805978156</v>
+        <v>0.005298165396492749</v>
       </c>
       <c r="E2">
-        <v>0.4354855266417559</v>
+        <v>1.52493115089608</v>
       </c>
       <c r="F2">
-        <v>0.4268455756567278</v>
+        <v>0.9968661724061576</v>
       </c>
       <c r="G2">
-        <v>0.3367752227119354</v>
+        <v>0.9869680518151256</v>
       </c>
       <c r="H2">
-        <v>0.3434920082859492</v>
+        <v>0.4790111096858567</v>
       </c>
       <c r="I2">
-        <v>0.3757315010515043</v>
+        <v>0.4951129138725179</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -457,10 +457,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.538965158849294</v>
+        <v>3.037635430282705</v>
       </c>
       <c r="O2">
-        <v>1.288635611322178</v>
+        <v>3.050645075630683</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.1913949238933697</v>
+        <v>0.5052132088299288</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.003117985810526136</v>
+        <v>0.004652449416015614</v>
       </c>
       <c r="E3">
-        <v>0.3796236440278449</v>
+        <v>1.306053004890472</v>
       </c>
       <c r="F3">
-        <v>0.3933003553665202</v>
+        <v>0.8628529833462437</v>
       </c>
       <c r="G3">
-        <v>0.3012008603001277</v>
+        <v>0.8508712951368267</v>
       </c>
       <c r="H3">
-        <v>0.3306581927846537</v>
+        <v>0.4201828794666795</v>
       </c>
       <c r="I3">
-        <v>0.3656238581545637</v>
+        <v>0.4584487682843417</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -504,10 +504,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.440536212657179</v>
+        <v>2.737299696658539</v>
       </c>
       <c r="O3">
-        <v>1.186000399322808</v>
+        <v>2.638560695354784</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.1762869034279646</v>
+        <v>0.4595565776571533</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.003018255499195988</v>
+        <v>0.004260646586313754</v>
       </c>
       <c r="E4">
-        <v>0.3454298728940586</v>
+        <v>1.174656493552405</v>
       </c>
       <c r="F4">
-        <v>0.3729420886923549</v>
+        <v>0.7818870751447378</v>
       </c>
       <c r="G4">
-        <v>0.2794993337179079</v>
+        <v>0.7685931899413418</v>
       </c>
       <c r="H4">
-        <v>0.3229880749787242</v>
+        <v>0.3847939684976183</v>
       </c>
       <c r="I4">
-        <v>0.3596127975951688</v>
+        <v>0.4362154386400974</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -551,10 +551,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.380350891855613</v>
+        <v>2.5530864410552</v>
       </c>
       <c r="O4">
-        <v>1.123707417123967</v>
+        <v>2.38978459245871</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.1701201473106835</v>
+        <v>0.4409186727193486</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.002977983059874845</v>
+        <v>0.004101975997039986</v>
       </c>
       <c r="E5">
-        <v>0.3315199486717546</v>
+        <v>1.121746707635722</v>
       </c>
       <c r="F5">
-        <v>0.3647054950681934</v>
+        <v>0.7491814915978097</v>
       </c>
       <c r="G5">
-        <v>0.2706907303260948</v>
+        <v>0.7353419341014416</v>
       </c>
       <c r="H5">
-        <v>0.3199150623406126</v>
+        <v>0.3705360649489222</v>
       </c>
       <c r="I5">
-        <v>0.3572128864359954</v>
+        <v>0.4272251559504028</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -598,10 +598,10 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.355891405433653</v>
+        <v>2.478069448651866</v>
       </c>
       <c r="O5">
-        <v>1.098503372127993</v>
+        <v>2.289333870716746</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.1690955695415823</v>
+        <v>0.4378218885601228</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.002971318247256605</v>
+        <v>0.004075683971676014</v>
       </c>
       <c r="E6">
-        <v>0.3292116194363217</v>
+        <v>1.112996220327418</v>
       </c>
       <c r="F6">
-        <v>0.3633413997772692</v>
+        <v>0.7437669979451726</v>
       </c>
       <c r="G6">
-        <v>0.269230162170615</v>
+        <v>0.7298360984162144</v>
       </c>
       <c r="H6">
-        <v>0.3194079646665671</v>
+        <v>0.3681778445340314</v>
       </c>
       <c r="I6">
-        <v>0.3568173988915788</v>
+        <v>0.4257365520943779</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -645,10 +645,10 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.351834048475041</v>
+        <v>2.465616123913208</v>
       </c>
       <c r="O6">
-        <v>1.094329137056548</v>
+        <v>2.272706244722855</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1762037765295901</v>
+        <v>0.459305352421552</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.003017710873152168</v>
+        <v>0.004258502903004668</v>
       </c>
       <c r="E7">
-        <v>0.3452421832880503</v>
+        <v>1.17394050868252</v>
       </c>
       <c r="F7">
-        <v>0.3728307665163442</v>
+        <v>0.78144488166744</v>
       </c>
       <c r="G7">
-        <v>0.2793803970864275</v>
+        <v>0.7681436849631353</v>
       </c>
       <c r="H7">
-        <v>0.3229464183999653</v>
+        <v>0.3846010460906371</v>
       </c>
       <c r="I7">
-        <v>0.3595802297560198</v>
+        <v>0.4360939092484273</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -692,10 +692,10 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1.38002074861987</v>
+        <v>2.552074523768539</v>
       </c>
       <c r="O7">
-        <v>1.12336677637748</v>
+        <v>2.388426300190986</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.2074802658001431</v>
+        <v>0.5538236746774885</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.00322565360309035</v>
+        <v>0.005074435093760599</v>
       </c>
       <c r="E8">
-        <v>0.4162010468717057</v>
+        <v>1.44876550594509</v>
       </c>
       <c r="F8">
-        <v>0.4152293778963099</v>
+        <v>0.9503577801120855</v>
       </c>
       <c r="G8">
-        <v>0.3244794999739042</v>
+        <v>0.939746365444222</v>
       </c>
       <c r="H8">
-        <v>0.3390232442816625</v>
+        <v>0.4585622545726693</v>
       </c>
       <c r="I8">
-        <v>0.3722062484302811</v>
+        <v>0.4824132112798409</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -739,10 +739,10 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1.504976964632107</v>
+        <v>2.934040714684301</v>
       </c>
       <c r="O8">
-        <v>1.253095441307636</v>
+        <v>2.907589319884806</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.2684501888315936</v>
+        <v>0.7382065226404109</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.003644731220816766</v>
+        <v>0.006721431169316006</v>
       </c>
       <c r="E9">
-        <v>0.5562976445450403</v>
+        <v>2.017483874186297</v>
       </c>
       <c r="F9">
-        <v>0.5002909339772401</v>
+        <v>1.294198833933336</v>
       </c>
       <c r="G9">
-        <v>0.4140703990656505</v>
+        <v>1.288739143502312</v>
       </c>
       <c r="H9">
-        <v>0.3722245405283218</v>
+        <v>0.6104393485629203</v>
       </c>
       <c r="I9">
-        <v>0.3984893586955494</v>
+        <v>0.5754683679897212</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -786,10 +786,10 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>1.751860150726543</v>
+        <v>3.68456202206653</v>
       </c>
       <c r="O9">
-        <v>1.513334097579957</v>
+        <v>3.966343654729485</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.3129948669844396</v>
+        <v>0.8731587267203054</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.003959326331720803</v>
+        <v>0.007977092752703641</v>
       </c>
       <c r="E10">
-        <v>0.6599630079396519</v>
+        <v>2.463144888214813</v>
       </c>
       <c r="F10">
-        <v>0.5639956345128354</v>
+        <v>1.557834171831686</v>
       </c>
       <c r="G10">
-        <v>0.4806440831150098</v>
+        <v>1.556308785808454</v>
       </c>
       <c r="H10">
-        <v>0.3976543754028228</v>
+        <v>0.7278046150333353</v>
       </c>
       <c r="I10">
-        <v>0.4186982167615625</v>
+        <v>0.6452217692004893</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -833,10 +833,10 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1.93419659562025</v>
+        <v>4.236894622658639</v>
       </c>
       <c r="O10">
-        <v>1.70823048577472</v>
+        <v>4.779924602685014</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.33319936175468</v>
+        <v>0.9344599874919481</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.004103863068408486</v>
+        <v>0.008563135149493917</v>
       </c>
       <c r="E11">
-        <v>0.7073182102084701</v>
+        <v>2.674521596467926</v>
       </c>
       <c r="F11">
-        <v>0.5932485116357213</v>
+        <v>1.681013446550395</v>
       </c>
       <c r="G11">
-        <v>0.5111043360739984</v>
+        <v>1.681371632577537</v>
       </c>
       <c r="H11">
-        <v>0.4094518639923876</v>
+        <v>0.782866621990479</v>
       </c>
       <c r="I11">
-        <v>0.4280806917633839</v>
+        <v>0.6772639329326324</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>2.017317443662478</v>
+        <v>4.488382904391415</v>
       </c>
       <c r="O11">
-        <v>1.797728296575315</v>
+        <v>5.160604547285118</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.3408412057247006</v>
+        <v>0.9576618370865049</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.004158796915575635</v>
+        <v>0.008787704166895338</v>
       </c>
       <c r="E12">
-        <v>0.7252814645633805</v>
+        <v>2.75606649755413</v>
       </c>
       <c r="F12">
-        <v>0.604365721277091</v>
+        <v>1.728207105980999</v>
       </c>
       <c r="G12">
-        <v>0.5226648403903766</v>
+        <v>1.729298286119644</v>
       </c>
       <c r="H12">
-        <v>0.4139524800987431</v>
+        <v>0.8039973304417174</v>
       </c>
       <c r="I12">
-        <v>0.4316602591565939</v>
+        <v>0.6894428311920606</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -927,10 +927,10 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>2.048815004509549</v>
+        <v>4.583648715502079</v>
       </c>
       <c r="O12">
-        <v>1.831741466706262</v>
+        <v>5.306548473380303</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.3391958157679937</v>
+        <v>0.9526653991386809</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.004146957056267553</v>
+        <v>0.008739212105052019</v>
       </c>
       <c r="E13">
-        <v>0.7214113434755376</v>
+        <v>2.738433005009711</v>
       </c>
       <c r="F13">
-        <v>0.6019696543234119</v>
+        <v>1.718017316158267</v>
       </c>
       <c r="G13">
-        <v>0.5201739184791165</v>
+        <v>1.718949644460395</v>
       </c>
       <c r="H13">
-        <v>0.4129817139520924</v>
+        <v>0.7994333189917029</v>
       </c>
       <c r="I13">
-        <v>0.4308881605543888</v>
+        <v>0.6868178671706033</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -974,10 +974,10 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>2.042030543333738</v>
+        <v>4.563130066384986</v>
       </c>
       <c r="O13">
-        <v>1.824410655378244</v>
+        <v>5.275032637844561</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.3338282482071406</v>
+        <v>0.9363690428265272</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.004108378505360832</v>
+        <v>0.008581554186292806</v>
       </c>
       <c r="E14">
-        <v>0.7087954249356869</v>
+        <v>2.681198627114995</v>
       </c>
       <c r="F14">
-        <v>0.5941623311389179</v>
+        <v>1.684884606224955</v>
       </c>
       <c r="G14">
-        <v>0.5120549037030742</v>
+        <v>1.685302661151809</v>
       </c>
       <c r="H14">
-        <v>0.409821466670877</v>
+        <v>0.7845992030046318</v>
       </c>
       <c r="I14">
-        <v>0.4283746547068787</v>
+        <v>0.6782649886334866</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1021,10 +1021,10 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>2.019908357050213</v>
+        <v>4.496219825738564</v>
       </c>
       <c r="O14">
-        <v>1.800524119720649</v>
+        <v>5.172573933209208</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.3305392456628908</v>
+        <v>0.9263855807037373</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.00408477407517438</v>
+        <v>0.008485346035396191</v>
       </c>
       <c r="E15">
-        <v>0.7010719049055893</v>
+        <v>2.646344802390672</v>
       </c>
       <c r="F15">
-        <v>0.5893853151532795</v>
+        <v>1.66466385749041</v>
       </c>
       <c r="G15">
-        <v>0.5070851600557091</v>
+        <v>1.664769677683552</v>
       </c>
       <c r="H15">
-        <v>0.4078900483665961</v>
+        <v>0.7755505943766252</v>
       </c>
       <c r="I15">
-        <v>0.4268385096919047</v>
+        <v>0.6730320097669491</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>2.006360570313291</v>
+        <v>4.455239622433339</v>
       </c>
       <c r="O15">
-        <v>1.785908904299276</v>
+        <v>5.110056509087201</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.3116732098856971</v>
+        <v>0.8691508517120781</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.003949908852845851</v>
+        <v>0.007939133608349636</v>
       </c>
       <c r="E16">
-        <v>0.6568724169760856</v>
+        <v>2.449525978174492</v>
       </c>
       <c r="F16">
-        <v>0.5620894304974513</v>
+        <v>1.5498562064693</v>
       </c>
       <c r="G16">
-        <v>0.4786570196494324</v>
+        <v>1.548210121441343</v>
       </c>
       <c r="H16">
-        <v>0.3968880122874339</v>
+        <v>0.7242430871725958</v>
       </c>
       <c r="I16">
-        <v>0.4180888088535895</v>
+        <v>0.643134037803712</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1115,10 +1115,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>1.928767661017872</v>
+        <v>4.220463849171011</v>
       </c>
       <c r="O16">
-        <v>1.702398612130764</v>
+        <v>4.755281211551448</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.3000838993125114</v>
+        <v>0.8340171836811408</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.003867535620365459</v>
+        <v>0.007608183454763662</v>
       </c>
       <c r="E17">
-        <v>0.629809763319642</v>
+        <v>2.331168706861177</v>
       </c>
       <c r="F17">
-        <v>0.5454146261146775</v>
+        <v>1.480312321517161</v>
       </c>
       <c r="G17">
-        <v>0.4612626808594769</v>
+        <v>1.477619640781569</v>
       </c>
       <c r="H17">
-        <v>0.3901974874650023</v>
+        <v>0.6932223413564884</v>
       </c>
       <c r="I17">
-        <v>0.4127692216154415</v>
+        <v>0.6248725872898859</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1162,10 +1162,10 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>1.88120914429345</v>
+        <v>4.076494888478607</v>
       </c>
       <c r="O17">
-        <v>1.651383722660285</v>
+        <v>4.540526966263258</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.2934125106850161</v>
+        <v>0.8138007528253866</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.003820291157840217</v>
+        <v>0.007419189712354779</v>
       </c>
       <c r="E18">
-        <v>0.6142624613427046</v>
+        <v>2.263888576377539</v>
       </c>
       <c r="F18">
-        <v>0.5358494138644119</v>
+        <v>1.440613032443892</v>
       </c>
       <c r="G18">
-        <v>0.4512744032264209</v>
+        <v>1.437326779334882</v>
       </c>
       <c r="H18">
-        <v>0.3863708487733675</v>
+        <v>0.6755347551190312</v>
       </c>
       <c r="I18">
-        <v>0.4097273953840173</v>
+        <v>0.6143983206426</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1209,10 +1209,10 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>1.85387144156806</v>
+        <v>3.993709333444514</v>
       </c>
       <c r="O18">
-        <v>1.622120123892898</v>
+        <v>4.417983711144075</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.2911527646049308</v>
+        <v>0.8069543263249557</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.003804318212985436</v>
+        <v>0.00735541927104677</v>
       </c>
       <c r="E19">
-        <v>0.6090015003013463</v>
+        <v>2.241238163662516</v>
       </c>
       <c r="F19">
-        <v>0.5326151957723084</v>
+        <v>1.427220847244641</v>
       </c>
       <c r="G19">
-        <v>0.4478953566152768</v>
+        <v>1.42373489085989</v>
       </c>
       <c r="H19">
-        <v>0.3850789144428575</v>
+        <v>0.66957149556535</v>
       </c>
       <c r="I19">
-        <v>0.4087005711172083</v>
+        <v>0.6108569212606056</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1256,10 +1256,10 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>1.844618345498787</v>
+        <v>3.965683291769551</v>
       </c>
       <c r="O19">
-        <v>1.612225456820568</v>
+        <v>4.376652997491249</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.3013181776851468</v>
+        <v>0.8377580912798805</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.003876290507584201</v>
+        <v>0.007643269513998519</v>
       </c>
       <c r="E20">
-        <v>0.6326887045236589</v>
+        <v>2.343683935536859</v>
       </c>
       <c r="F20">
-        <v>0.5471870247896504</v>
+        <v>1.48768373099675</v>
       </c>
       <c r="G20">
-        <v>0.4631126271809762</v>
+        <v>1.485101550843098</v>
       </c>
       <c r="H20">
-        <v>0.3909074710753089</v>
+        <v>0.6965082693321847</v>
       </c>
       <c r="I20">
-        <v>0.4133336567293782</v>
+        <v>0.626813520576917</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>1.886270128093656</v>
+        <v>4.091818400229045</v>
       </c>
       <c r="O20">
-        <v>1.656806175146926</v>
+        <v>4.563284905654655</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.3354050867553156</v>
+        <v>0.9411559823937807</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.004119704540567426</v>
+        <v>0.008627785649217401</v>
       </c>
       <c r="E21">
-        <v>0.7125001682736638</v>
+        <v>2.697966739097097</v>
       </c>
       <c r="F21">
-        <v>0.5964544477321994</v>
+        <v>1.694600906553859</v>
       </c>
       <c r="G21">
-        <v>0.5144389481118878</v>
+        <v>1.695169425529826</v>
       </c>
       <c r="H21">
-        <v>0.4107488063632729</v>
+        <v>0.7889484044629</v>
       </c>
       <c r="I21">
-        <v>0.429112214418673</v>
+        <v>0.6807759445216846</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>2.026405625114307</v>
+        <v>4.515872099351611</v>
       </c>
       <c r="O21">
-        <v>1.807536841490844</v>
+        <v>5.202617682842231</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.3576291578720543</v>
+        <v>1.008665481205611</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.00427995902020939</v>
+        <v>0.009286977287185749</v>
       </c>
       <c r="E22">
-        <v>0.7648426698322197</v>
+        <v>2.93841341156454</v>
       </c>
       <c r="F22">
-        <v>0.6288856518111032</v>
+        <v>1.833074960871926</v>
       </c>
       <c r="G22">
-        <v>0.5481347357242612</v>
+        <v>1.835821354730712</v>
       </c>
       <c r="H22">
-        <v>0.4239096552953754</v>
+        <v>0.8510172862341676</v>
       </c>
       <c r="I22">
-        <v>0.4395793436413413</v>
+        <v>0.71630741384309</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1397,10 +1397,10 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>2.118115898853375</v>
+        <v>4.793206235152638</v>
       </c>
       <c r="O22">
-        <v>1.906761666784462</v>
+        <v>5.631035743392715</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.3457728835225566</v>
+        <v>0.9726400862101627</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.00419432250900087</v>
+        <v>0.008933513373264645</v>
       </c>
       <c r="E23">
-        <v>0.7368890890760866</v>
+        <v>2.809170915509924</v>
       </c>
       <c r="F23">
-        <v>0.6115551107154431</v>
+        <v>1.758842526077004</v>
       </c>
       <c r="G23">
-        <v>0.5301366292087835</v>
+        <v>1.760413326892916</v>
       </c>
       <c r="H23">
-        <v>0.4168677050772089</v>
+        <v>0.8177241488518803</v>
       </c>
       <c r="I23">
-        <v>0.4339788619107594</v>
+        <v>0.6973192642933483</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1444,10 +1444,10 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>2.069158297356239</v>
+        <v>4.645170341327685</v>
       </c>
       <c r="O23">
-        <v>1.853737639956933</v>
+        <v>5.401315056717692</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.3007601869816199</v>
+        <v>0.8360668819177874</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.003872332071402695</v>
+        <v>0.007627403176126535</v>
       </c>
       <c r="E24">
-        <v>0.6313870999754982</v>
+        <v>2.338023436638267</v>
       </c>
       <c r="F24">
-        <v>0.5463856568671446</v>
+        <v>1.484350243086766</v>
       </c>
       <c r="G24">
-        <v>0.4622762292460152</v>
+        <v>1.481718080754206</v>
       </c>
       <c r="H24">
-        <v>0.3905864257188227</v>
+        <v>0.6950222474172847</v>
       </c>
       <c r="I24">
-        <v>0.4130784242511822</v>
+        <v>0.6259359484111329</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1491,10 +1491,10 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>1.883982043575145</v>
+        <v>4.084890690002311</v>
       </c>
       <c r="O24">
-        <v>1.654354480355494</v>
+        <v>4.552993189744996</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.2519980490937996</v>
+        <v>0.6884222602582781</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.003530170004244937</v>
+        <v>0.006269286364911864</v>
       </c>
       <c r="E25">
-        <v>0.5182800985496812</v>
+        <v>1.859524139094276</v>
       </c>
       <c r="F25">
-        <v>0.4770700030462791</v>
+        <v>1.199509197689281</v>
       </c>
       <c r="G25">
-        <v>0.3897053291205168</v>
+        <v>1.192647888633019</v>
       </c>
       <c r="H25">
-        <v>0.3630617902832967</v>
+        <v>0.5684647483350318</v>
       </c>
       <c r="I25">
-        <v>0.3912191043998661</v>
+        <v>0.5500536194376622</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1538,10 +1538,10 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>1.684892220676318</v>
+        <v>3.481366830696999</v>
       </c>
       <c r="O25">
-        <v>1.442293097308493</v>
+        <v>3.674513817175978</v>
       </c>
     </row>
   </sheetData>
